--- a/aiogram_bot/resources/images.xlsx
+++ b/aiogram_bot/resources/images.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Шаблон</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>h-000002</t>
+  </si>
+  <si>
+    <t>Пример 1</t>
+  </si>
+  <si>
+    <t>Пример 2</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Описание</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/gqZfIINxIcXyLQ</t>
@@ -190,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -215,13 +227,22 @@
     <font>
       <u/>
       <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -239,30 +260,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -566,25 +588,25 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1652,1156 +1674,74 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="C2"/>
-    <hyperlink r:id="rId4" ref="D2"/>
-    <hyperlink r:id="rId5" ref="E2"/>
-    <hyperlink r:id="rId6" ref="A3"/>
-    <hyperlink r:id="rId7" ref="B3"/>
-    <hyperlink r:id="rId8" ref="C3"/>
-    <hyperlink r:id="rId9" ref="D3"/>
-    <hyperlink r:id="rId10" ref="E3"/>
-    <hyperlink r:id="rId11" ref="A4"/>
-    <hyperlink r:id="rId12" ref="B4"/>
-    <hyperlink r:id="rId13" ref="C4"/>
-    <hyperlink r:id="rId14" ref="D4"/>
-    <hyperlink r:id="rId15" ref="E4"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId16"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="32.43"/>
-    <col customWidth="1" min="2" max="2" width="37.0"/>
-    <col customWidth="1" min="3" max="3" width="38.14"/>
-    <col customWidth="1" min="4" max="4" width="76.57"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1"/>
@@ -3800,12 +2740,1106 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="B1"/>
-    <hyperlink r:id="rId3" ref="A2"/>
-    <hyperlink r:id="rId4" ref="B2"/>
-    <hyperlink r:id="rId5" ref="A3"/>
-    <hyperlink r:id="rId6" ref="B3"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="B2"/>
+    <hyperlink r:id="rId3" ref="C2"/>
+    <hyperlink r:id="rId4" ref="D2"/>
+    <hyperlink r:id="rId5" ref="E2"/>
+    <hyperlink r:id="rId6" ref="A3"/>
+    <hyperlink r:id="rId7" ref="B3"/>
+    <hyperlink r:id="rId8" ref="C3"/>
+    <hyperlink r:id="rId9" ref="D3"/>
+    <hyperlink r:id="rId10" ref="E3"/>
+    <hyperlink r:id="rId11" ref="A4"/>
+    <hyperlink r:id="rId12" ref="B4"/>
+    <hyperlink r:id="rId13" ref="C4"/>
+    <hyperlink r:id="rId14" ref="D4"/>
+    <hyperlink r:id="rId15" ref="E4"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.43"/>
+    <col customWidth="1" min="2" max="2" width="37.0"/>
+    <col customWidth="1" min="3" max="3" width="38.14"/>
+    <col customWidth="1" min="4" max="4" width="76.57"/>
+    <col customWidth="1" min="5" max="6" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="B2"/>
+    <hyperlink r:id="rId3" ref="A3"/>
+    <hyperlink r:id="rId4" ref="B3"/>
+    <hyperlink r:id="rId5" ref="A4"/>
+    <hyperlink r:id="rId6" ref="B4"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/aiogram_bot/resources/images.xlsx
+++ b/aiogram_bot/resources/images.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="516" yWindow="600" windowWidth="15996" windowHeight="3660"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Простой дизайн" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Сложный дизайн" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Сценарии" sheetId="3" r:id="rId6"/>
+    <sheet name="Простой дизайн" sheetId="1" r:id="rId1"/>
+    <sheet name="Сложный дизайн" sheetId="2" r:id="rId2"/>
+    <sheet name="Сценарии" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="244">
   <si>
     <t>Шаблон</t>
   </si>
@@ -36,120 +39,12 @@
     <t>Цена</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/u1VSYrHTGWYkmw </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/IfM_lvKW6LzLJg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/UY0A6Onhm4EGTQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/SgI_JFEnmAPA7w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/f4qvuKCkjfv7cA</t>
-  </si>
-  <si>
-    <t>e-000000</t>
-  </si>
-  <si>
     <t>100 руб.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/v4L1UGGh_MjJRQ </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/AZCxeFkOACi70A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/J_ReEcv9r-sU0g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/QRZGw0ODtGjeIwа 3</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/rjNE2vp55oPwDQ</t>
-  </si>
-  <si>
-    <t>e-000001</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/d8I2zFEZ8Lkgqg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/BlGMbLBPRVnuNQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/AvbKWElomv5QCQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/tpLybe-Z2i8UsQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/FGr8SK6PGomljg</t>
-  </si>
-  <si>
-    <t>e-000002</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Vtz_6vudg0tssQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/iW5UgANOMzIIYg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/vHwaKhKsp6Xbyw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/jlCn-zxAc7xLkA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/KXbWHxBOQ_cmhw</t>
-  </si>
-  <si>
-    <t>h-000000</t>
-  </si>
-  <si>
     <t>300 руб.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/qB-7PiIGEgMJ5g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/7QjKW6019HQTMA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/-YK27QOSEdALyA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/yAMw-Jv6aSFHBA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/-RYjETks5OVSzw</t>
-  </si>
-  <si>
-    <t>h-000001</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/iiVRcm1QkzowmQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/wp_wlm5_IKZc6g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/_HhvXV2EriiYiQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/nHKy8XU6C4MEWg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/mbPgPRfgoT0dSw</t>
-  </si>
-  <si>
-    <t>h-000002</t>
-  </si>
-  <si>
     <t>Пример 1</t>
   </si>
   <si>
@@ -162,87 +57,740 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/gqZfIINxIcXyLQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/G0PTDXJwuQJFtQ</t>
-  </si>
-  <si>
     <t>Комплектация</t>
   </si>
   <si>
     <t>Подходит, когда ваш товар состоит из нескольких предметов, которые надо показать</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/0MHHNJlhD0GUQA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/XB1Ivei6uF8CKQ</t>
-  </si>
-  <si>
     <t>Размеры</t>
   </si>
   <si>
     <t>Подходит, когда нужно указать размеры вашего товара</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/hQKYyDpzXRqt4Q</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/94iIDTiw4uAjyg</t>
-  </si>
-  <si>
     <t>Инструкция</t>
   </si>
   <si>
     <t>Подходит, когда нужно описать инструкцию по применению вашего товара</t>
+  </si>
+  <si>
+    <t>Сравнение с конкурентом</t>
+  </si>
+  <si>
+    <t>Инфографика</t>
+  </si>
+  <si>
+    <t>Сфера применения</t>
+  </si>
+  <si>
+    <t>До - После</t>
+  </si>
+  <si>
+    <t>Подарки</t>
+  </si>
+  <si>
+    <t>Информация о магазине</t>
+  </si>
+  <si>
+    <t>Доп информация</t>
+  </si>
+  <si>
+    <t>Подходит, когда нужно сравнить ваш товар с конкурентом</t>
+  </si>
+  <si>
+    <t>Подходит, когда вам нужно описать преимущества товара с инфографикой</t>
+  </si>
+  <si>
+    <t>Подходит, когда вам нужно описать где используется ваш товар</t>
+  </si>
+  <si>
+    <t>Подходит, когда вам нужно показать результат после использования товара</t>
+  </si>
+  <si>
+    <t>Подходит, когда к основному товару прилагается подарок и его нужно показать</t>
+  </si>
+  <si>
+    <t>Подходит, когда вам нужно рассказать о вашем магазине и показать все товары</t>
+  </si>
+  <si>
+    <t>Подходит, когда вам нужно описать любую дополнительную информацию: гарантия, доставка, отзывы и т.п.</t>
+  </si>
+  <si>
+    <t>e0001</t>
+  </si>
+  <si>
+    <t>e0002</t>
+  </si>
+  <si>
+    <t>e0003</t>
+  </si>
+  <si>
+    <t>e0004</t>
+  </si>
+  <si>
+    <t>e0005</t>
+  </si>
+  <si>
+    <t>e0006</t>
+  </si>
+  <si>
+    <t>e0007</t>
+  </si>
+  <si>
+    <t>e0008</t>
+  </si>
+  <si>
+    <t>e0009</t>
+  </si>
+  <si>
+    <t>e0010</t>
+  </si>
+  <si>
+    <t>e0011</t>
+  </si>
+  <si>
+    <t>e0012</t>
+  </si>
+  <si>
+    <t>e0013</t>
+  </si>
+  <si>
+    <t>e0014</t>
+  </si>
+  <si>
+    <t>h0001</t>
+  </si>
+  <si>
+    <t>h0002</t>
+  </si>
+  <si>
+    <t>h0003</t>
+  </si>
+  <si>
+    <t>h0004</t>
+  </si>
+  <si>
+    <t>h0005</t>
+  </si>
+  <si>
+    <t>h0006</t>
+  </si>
+  <si>
+    <t>h0007</t>
+  </si>
+  <si>
+    <t>h0008</t>
+  </si>
+  <si>
+    <t>h0009</t>
+  </si>
+  <si>
+    <t>h0010</t>
+  </si>
+  <si>
+    <t>h0011</t>
+  </si>
+  <si>
+    <t>h0012</t>
+  </si>
+  <si>
+    <t>h0013</t>
+  </si>
+  <si>
+    <t>h0014</t>
+  </si>
+  <si>
+    <t>h0015</t>
+  </si>
+  <si>
+    <t>h0016</t>
+  </si>
+  <si>
+    <t>h0017</t>
+  </si>
+  <si>
+    <t>h0018</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XonqyCZRsaX9IA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BlMH-Grm-z0qGg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Vm6eNp9HKYsI3g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/V7DuATVatF9FHQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Xj6KR7KtwiEr_g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/3BsUjDrbdYGsnA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/FvnrdBJ9-a5VYg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/t_cb0nmgCI_NxQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/4P4CK0-gHsBXvA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Kp9kBQSxdbVlMQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ss6abKvfTBPa2Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/EZxy5MZEowWeow</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/TOwlR8R9LC6gWA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SvOrhuIB2FjLxA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/MPNCoPGeyDfxZA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/jLY9Wm8B1N6YDw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/48FNkq9X2kshqw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8e1Rx7AxOHwmuQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/s0HmdpDFnBgTvw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/0SHSdrHqontP5Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/H1UiokSCmAUqnw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8el2EPPUWBGmVw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Dd5emJHGo5G8jQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/poWZW6dDM5Gb2A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/MTjUxEp-hCySYw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/jifTe7ccze9kxw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/WRRFvsY7UFBWBw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hRMWV3KcAhXOew</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/kOrbd5lI9y5eVA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/wSPyNEQpnenu-A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/3V0pk1Sx4A8Lkg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/wQJspDt1HeiHog</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/92LBDql_VmDqaw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/itXcdq8n5WIGwA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/cqI4ey5JOz71hw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/v1imGUHkJOQrYw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8YRHRaZTCCR1YQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/S2y-kMuSk2cxqQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/W0oVgvZHLsZ3CQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/5JLJhOx8Bz0Kmw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/5ehBqocGVeEZqA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/sCkvpO4H1K6ZMQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YIxHhnwtVi8uwg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/IeHcYZK3qW7dnQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Tdq87up-BvBdVg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/jRsxyrzcLq7z-A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/c8DGIg2CcB95fw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/peKzc-GDxMJXlQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/-wP6TCMFT7S67w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/d96ZjHGoOZsSVw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PZyfQ3_K1YTmgw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/wnvt78B2vGi4uw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/4KFFvJVbIs-NpQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/H5YK3NKizRyXsA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nLMLlCu8zzSseg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/KVYIG7n5swda9A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XD66WBrHLKljPg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hZBAf0oO1QhyUA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8khc3hrk9NbpPA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/wwUljUvv4bgJEQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/FWLLzf6rHBuvoA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7QLpZiX3LJlBIg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/c3r16hCvaFiHQg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Ds8fwk9GH9BoUg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/vtHvCVkcVLg2ZA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/pxXvVeo7H3fpQA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yB2NRq0XZikgww</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/lTyKSlneQkOquQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/F9MNIOYH4kQsdQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/f8ibIfQa1eiIZA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zaxKev765NG4pQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/NICITkedkwKi9g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1pcNEj5ZdnGIlQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/3iZzD2kwEtAr5A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SHpFHDF8r_tKKg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zKnTr6RsKZgfKw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hipGmim5lOkEAA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Le4rF__Ok3-MeQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/gEkfbgxiR9wDQg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/RYPIsb02nprpnw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/pSli5QWsAtSXrg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/IPrsogrOZtjieA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/E2x_FihDp9H-2Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xqtR07p7QDkbxQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/O6HKS_h3uiZHoQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ZRAT5nKAL8g1tg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SCJX1GnaKCn22A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/DRlGgRu6hXrMsw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/WJVnc1ax-M-gzw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yr_aGVCUYNae7g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/dTNbeqtsfL6g2A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XaUaiftMm7I2Vw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/d8-0LfEFln3kaQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/cgMROj6IkaspUQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/d-w6JKqLOZ15UA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nIqkk7voNGxYUA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OHMZ-dTqkriJXA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zrtCtC-t61AzWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/2oELLZOJwiRj1g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GdvKzQo7zv2VhQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Xa3EmVUUON19kQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/j88f0YUZeLrjhg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/WL8MTvFphf4Upw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Ckcp5GdI76P-0g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/C_CZ-DjkojLkQg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/B-GRAaEgoUBGAA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/r4vKDYoc7lMXWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/knCsnyFzNL8HEg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/0wgiqLoWjmPrxA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/eGqaacF4VOeIIw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/g-fo2ID1I3rO3w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/g2CgVmQFHxxUXQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BQoqNHny73ho5Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/N3R0N_gq9ly04w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/kgEM8KQQtqgBSg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/argfCJ6oX68QNA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/-DTjZpi4bhzckg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/iiaiHQfPBLXspw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Fdl6oM0OUWcwSw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GSXeiP1rWust2A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XJe6qxfG4_VnaA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GzYFbIVVVIqkRQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/eqGGBJg1Gv78gw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PoUHW1gX_nT3DA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7CyNewjeO5dJpw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XbTnkUxfPA25xQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Lj8W0jNvE8E7zQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/t6GIqmTImS6hrA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XqI5W1gahLrv8g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/znmuYY6oUuWrsQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zEBjOlK3_PrCPg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/wPSttkPy0HbSCA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PYxbGEsqL_glOg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zBtVQDetUyXv6A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/52n3MsKYoO_trA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Jy4fy_oupK9zlg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/JjdKxes6PnSY6Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/kEsOzcPYkjz1gQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nzxkmk4wSY0erw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/FibeLoVJONcDTw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Yn4JVGuNqBca4A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/aT1pgEXEj-3UEQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/p-C8iKX5P_Tu8Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Jj1A8I-hgiGriA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ktS1i-FuvDNJ0w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/658DCr3De2Tn4w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/wqsz4tVQTfKhDw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/soIw6Cryn8b4og</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/npN8rjbQq9j3eQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/5NIPAzzd5xUTHw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/TmSCIeiFBh3C-Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/r4NMpI7WCVfY2g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/t3izFr-Cb1Ad7g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/2CFWTs7YCzlQcA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/JaayiQ78hhibVQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/abwHkayhTb-ziw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/AGs1RSnuHuSalw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/e7q90e_NQeIQrQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/57U3LnOBl1Du2Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/HQnfEV4fi6aDLw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/L9QbN6rZq-OPBA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/28DmWZWIsjLxGg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/x7BCoTKORT2QeA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/AfsM4RKUU4pLkA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/glufGvzT3s0Zgg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/_lL0welsj47V7g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/txtnJvovffWsqg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PJ_tEwpU9XNYFg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Uko4WyCH3ddkJg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OIcm09tJssadaA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/w2lRrMcXOZrj9w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/rOjsxda3i4v5Rg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/64AHYmLP2S1tEw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/MZjvJ4fqB2DObA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/67SmSAFHfSU59w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8G7NcjOIy2PMCA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OTWVhnnp-Ox8ig</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YQ3k5S3cfxtnLw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/C_CJk3p-tb2bNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -251,62 +799,63 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -496,29 +1045,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.43"/>
-    <col customWidth="1" min="2" max="2" width="23.71"/>
-    <col customWidth="1" min="3" max="3" width="24.29"/>
-    <col customWidth="1" min="4" max="4" width="21.29"/>
-    <col customWidth="1" min="5" max="5" width="18.86"/>
-    <col customWidth="1" min="6" max="6" width="20.71"/>
-    <col customWidth="1" min="7" max="7" width="37.71"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,87 +1092,329 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1608,49 +2401,88 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="C2"/>
-    <hyperlink r:id="rId4" ref="D2"/>
-    <hyperlink r:id="rId5" ref="E2"/>
-    <hyperlink r:id="rId6" ref="A3"/>
-    <hyperlink r:id="rId7" ref="B3"/>
-    <hyperlink r:id="rId8" ref="C3"/>
-    <hyperlink r:id="rId9" ref="D3"/>
-    <hyperlink r:id="rId10" ref="E3"/>
-    <hyperlink r:id="rId11" ref="A4"/>
-    <hyperlink r:id="rId12" ref="B4"/>
-    <hyperlink r:id="rId13" ref="C4"/>
-    <hyperlink r:id="rId14" ref="D4"/>
-    <hyperlink r:id="rId15" ref="E4"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="E6" r:id="rId11"/>
+    <hyperlink ref="A7" r:id="rId12"/>
+    <hyperlink ref="B7" r:id="rId13"/>
+    <hyperlink ref="C7" r:id="rId14"/>
+    <hyperlink ref="D7" r:id="rId15"/>
+    <hyperlink ref="E7" r:id="rId16"/>
+    <hyperlink ref="A8" r:id="rId17"/>
+    <hyperlink ref="B8" r:id="rId18"/>
+    <hyperlink ref="C8" r:id="rId19"/>
+    <hyperlink ref="D8" r:id="rId20"/>
+    <hyperlink ref="E8" r:id="rId21"/>
+    <hyperlink ref="A9" r:id="rId22"/>
+    <hyperlink ref="B9" r:id="rId23"/>
+    <hyperlink ref="C9" r:id="rId24"/>
+    <hyperlink ref="D9" r:id="rId25"/>
+    <hyperlink ref="E9" r:id="rId26"/>
+    <hyperlink ref="A10" r:id="rId27"/>
+    <hyperlink ref="B10" r:id="rId28"/>
+    <hyperlink ref="C10" r:id="rId29"/>
+    <hyperlink ref="D10" r:id="rId30"/>
+    <hyperlink ref="E10" r:id="rId31"/>
+    <hyperlink ref="A11" r:id="rId32"/>
+    <hyperlink ref="B11" r:id="rId33"/>
+    <hyperlink ref="C11" r:id="rId34"/>
+    <hyperlink ref="D11" r:id="rId35"/>
+    <hyperlink ref="E11" r:id="rId36"/>
+    <hyperlink ref="A12" r:id="rId37"/>
+    <hyperlink ref="B12" r:id="rId38"/>
+    <hyperlink ref="C12" r:id="rId39"/>
+    <hyperlink ref="D12" r:id="rId40"/>
+    <hyperlink ref="E12" r:id="rId41"/>
+    <hyperlink ref="A13" r:id="rId42"/>
+    <hyperlink ref="B13" r:id="rId43"/>
+    <hyperlink ref="C13" r:id="rId44"/>
+    <hyperlink ref="D13" r:id="rId45"/>
+    <hyperlink ref="E13" r:id="rId46"/>
+    <hyperlink ref="A14" r:id="rId47"/>
+    <hyperlink ref="B14" r:id="rId48"/>
+    <hyperlink ref="C14" r:id="rId49"/>
+    <hyperlink ref="D14" r:id="rId50"/>
+    <hyperlink ref="E14" r:id="rId51"/>
+    <hyperlink ref="A15" r:id="rId52"/>
+    <hyperlink ref="B15" r:id="rId53"/>
+    <hyperlink ref="D15" r:id="rId54"/>
+    <hyperlink ref="C15" r:id="rId55"/>
+    <hyperlink ref="E15" r:id="rId56"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.86"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="24.0"/>
-    <col customWidth="1" min="5" max="5" width="24.57"/>
-    <col customWidth="1" min="6" max="6" width="20.29"/>
-    <col customWidth="1" min="7" max="7" width="54.71"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,87 +2505,1675 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId10"/>
+    <hyperlink ref="A4" r:id="rId11"/>
+    <hyperlink ref="B4" r:id="rId12"/>
+    <hyperlink ref="C4" r:id="rId13"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="E4" r:id="rId15"/>
+    <hyperlink ref="A5" r:id="rId16"/>
+    <hyperlink ref="B5" r:id="rId17"/>
+    <hyperlink ref="C5" r:id="rId18"/>
+    <hyperlink ref="D5" r:id="rId19"/>
+    <hyperlink ref="E5" r:id="rId20"/>
+    <hyperlink ref="A6" r:id="rId21"/>
+    <hyperlink ref="B6" r:id="rId22"/>
+    <hyperlink ref="C6" r:id="rId23"/>
+    <hyperlink ref="D6" r:id="rId24"/>
+    <hyperlink ref="E6" r:id="rId25"/>
+    <hyperlink ref="A7" r:id="rId26"/>
+    <hyperlink ref="B7" r:id="rId27"/>
+    <hyperlink ref="C7" r:id="rId28"/>
+    <hyperlink ref="D7" r:id="rId29"/>
+    <hyperlink ref="E7" r:id="rId30"/>
+    <hyperlink ref="A8" r:id="rId31"/>
+    <hyperlink ref="B8" r:id="rId32"/>
+    <hyperlink ref="C8" r:id="rId33"/>
+    <hyperlink ref="D8" r:id="rId34"/>
+    <hyperlink ref="E8" r:id="rId35"/>
+    <hyperlink ref="A9" r:id="rId36"/>
+    <hyperlink ref="B9" r:id="rId37"/>
+    <hyperlink ref="C9" r:id="rId38"/>
+    <hyperlink ref="D9" r:id="rId39"/>
+    <hyperlink ref="E9" r:id="rId40"/>
+    <hyperlink ref="A10" r:id="rId41"/>
+    <hyperlink ref="B10" r:id="rId42"/>
+    <hyperlink ref="C10" r:id="rId43"/>
+    <hyperlink ref="D10" r:id="rId44"/>
+    <hyperlink ref="E10" r:id="rId45"/>
+    <hyperlink ref="A11" r:id="rId46"/>
+    <hyperlink ref="B11" r:id="rId47"/>
+    <hyperlink ref="C11" r:id="rId48"/>
+    <hyperlink ref="D11" r:id="rId49"/>
+    <hyperlink ref="E11" r:id="rId50"/>
+    <hyperlink ref="A12" r:id="rId51"/>
+    <hyperlink ref="B12" r:id="rId52"/>
+    <hyperlink ref="C12" r:id="rId53"/>
+    <hyperlink ref="D12" r:id="rId54"/>
+    <hyperlink ref="E12" r:id="rId55"/>
+    <hyperlink ref="A13" r:id="rId56"/>
+    <hyperlink ref="B13" r:id="rId57"/>
+    <hyperlink ref="C13" r:id="rId58"/>
+    <hyperlink ref="D13" r:id="rId59"/>
+    <hyperlink ref="E13" r:id="rId60"/>
+    <hyperlink ref="A14" r:id="rId61"/>
+    <hyperlink ref="B14" r:id="rId62"/>
+    <hyperlink ref="C14" r:id="rId63"/>
+    <hyperlink ref="D14" r:id="rId64"/>
+    <hyperlink ref="E14" r:id="rId65"/>
+    <hyperlink ref="A15" r:id="rId66"/>
+    <hyperlink ref="B15" r:id="rId67"/>
+    <hyperlink ref="C15" r:id="rId68"/>
+    <hyperlink ref="D15" r:id="rId69"/>
+    <hyperlink ref="E15" r:id="rId70"/>
+    <hyperlink ref="A16" r:id="rId71"/>
+    <hyperlink ref="B16" r:id="rId72"/>
+    <hyperlink ref="C16" r:id="rId73"/>
+    <hyperlink ref="D16" r:id="rId74"/>
+    <hyperlink ref="E16" r:id="rId75"/>
+    <hyperlink ref="A17" r:id="rId76"/>
+    <hyperlink ref="B17" r:id="rId77"/>
+    <hyperlink ref="C17" r:id="rId78"/>
+    <hyperlink ref="D17" r:id="rId79"/>
+    <hyperlink ref="E17" r:id="rId80"/>
+    <hyperlink ref="A18" r:id="rId81"/>
+    <hyperlink ref="B18" r:id="rId82"/>
+    <hyperlink ref="C18" r:id="rId83"/>
+    <hyperlink ref="D18" r:id="rId84"/>
+    <hyperlink ref="E18" r:id="rId85"/>
+    <hyperlink ref="A19" r:id="rId86"/>
+    <hyperlink ref="B19" r:id="rId87"/>
+    <hyperlink ref="C19" r:id="rId88"/>
+    <hyperlink ref="D19" r:id="rId89"/>
+    <hyperlink ref="E19" r:id="rId90"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1000"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="76.5546875" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2740,1110 +5160,28 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="C2"/>
-    <hyperlink r:id="rId4" ref="D2"/>
-    <hyperlink r:id="rId5" ref="E2"/>
-    <hyperlink r:id="rId6" ref="A3"/>
-    <hyperlink r:id="rId7" ref="B3"/>
-    <hyperlink r:id="rId8" ref="C3"/>
-    <hyperlink r:id="rId9" ref="D3"/>
-    <hyperlink r:id="rId10" ref="E3"/>
-    <hyperlink r:id="rId11" ref="A4"/>
-    <hyperlink r:id="rId12" ref="B4"/>
-    <hyperlink r:id="rId13" ref="C4"/>
-    <hyperlink r:id="rId14" ref="D4"/>
-    <hyperlink r:id="rId15" ref="E4"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="B11" r:id="rId20"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId16"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="32.43"/>
-    <col customWidth="1" min="2" max="2" width="37.0"/>
-    <col customWidth="1" min="3" max="3" width="38.14"/>
-    <col customWidth="1" min="4" max="4" width="76.57"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="A3"/>
-    <hyperlink r:id="rId4" ref="B3"/>
-    <hyperlink r:id="rId5" ref="A4"/>
-    <hyperlink r:id="rId6" ref="B4"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>